--- a/画面設計書.xlsx
+++ b/画面設計書.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASHIDA TAKARA\Desktop\Work\Java\アプリ作成\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A00F2A6-F5C9-44AC-94A8-A22E52768C45}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42B8906-22C5-4A86-B844-8C0EA96F70E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="468" yWindow="696" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="468" yWindow="696" windowWidth="17280" windowHeight="8964" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -26,37 +26,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="7">
-  <si>
-    <t>やることリスト</t>
-    <phoneticPr fontId="2"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="8">
   <si>
     <t>やること</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>いつまで</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>あと何日</t>
-    <rPh sb="2" eb="4">
-      <t>ナンニチ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>文字列入力・出力</t>
-    <rPh sb="0" eb="3">
-      <t>モジレツ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シュツリョク</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -70,14 +46,42 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>計算結果出力</t>
+    <t>備考</t>
     <rPh sb="0" eb="2">
-      <t>ケイサン</t>
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>To Do リスト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>文字列入力</t>
+    <rPh sb="0" eb="3">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日付出力</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
     </rPh>
     <rPh sb="2" eb="4">
-      <t>ケッカ</t>
+      <t>シュツリョク</t>
     </rPh>
-    <rPh sb="4" eb="6">
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>文字列出力</t>
+    <rPh sb="0" eb="3">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
       <t>シュツリョク</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -1101,8 +1105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7F80AF5-665D-43B2-A932-DE81BFFAA9B8}">
   <dimension ref="D5:M37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10:L10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1139,7 +1143,7 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="13" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
@@ -1175,12 +1179,12 @@
     <row r="10" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D10" s="5"/>
       <c r="E10" s="13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="6"/>
       <c r="H10" s="13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="11"/>
@@ -1217,17 +1221,17 @@
     <row r="13" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D13" s="5"/>
       <c r="E13" s="12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="6"/>
       <c r="H13" s="12" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I13" s="12"/>
       <c r="J13" s="6"/>
       <c r="K13" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L13" s="12"/>
       <c r="M13" s="7"/>
@@ -1271,17 +1275,17 @@
     <row r="17" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D17" s="5"/>
       <c r="E17" s="12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="6"/>
       <c r="H17" s="12" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I17" s="12"/>
       <c r="J17" s="6"/>
       <c r="K17" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L17" s="12"/>
       <c r="M17" s="7"/>
@@ -1325,17 +1329,17 @@
     <row r="21" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D21" s="5"/>
       <c r="E21" s="12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="6"/>
       <c r="H21" s="12" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I21" s="12"/>
       <c r="J21" s="6"/>
       <c r="K21" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L21" s="12"/>
       <c r="M21" s="7"/>
@@ -1379,17 +1383,17 @@
     <row r="25" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D25" s="5"/>
       <c r="E25" s="12" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F25" s="12"/>
       <c r="G25" s="6"/>
       <c r="H25" s="12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I25" s="12"/>
       <c r="J25" s="6"/>
       <c r="K25" s="12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L25" s="12"/>
       <c r="M25" s="7"/>
@@ -1433,17 +1437,17 @@
     <row r="29" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D29" s="5"/>
       <c r="E29" s="12" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F29" s="12"/>
       <c r="G29" s="6"/>
       <c r="H29" s="12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I29" s="12"/>
       <c r="J29" s="6"/>
       <c r="K29" s="12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L29" s="12"/>
       <c r="M29" s="7"/>
@@ -1487,17 +1491,17 @@
     <row r="33" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D33" s="5"/>
       <c r="E33" s="12" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F33" s="12"/>
       <c r="G33" s="6"/>
       <c r="H33" s="12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I33" s="12"/>
       <c r="J33" s="6"/>
       <c r="K33" s="12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L33" s="12"/>
       <c r="M33" s="7"/>
